--- a/Tables/guide/guide_step.xlsx
+++ b/Tables/guide/guide_step.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="465" windowWidth="25425" windowHeight="14160"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>A</t>
   </si>
@@ -294,314 +294,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UINodeFinder:HomePanel,Root/TopUI/MovingAreaRoot/StartButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:LevelSelectPanel,;MonoFuncCall:#0,PTGame.PaiLogic.LevelSelectPanel,GetLevelCell,A-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡选择界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>题卡错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始答题引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星成就引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:MedalGetterPanel,Root/FrontPage/OkButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由扫描引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelComplateTrigger:A-1-3;UINodeVisibleTrigger:#0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对模式引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:LevelSelectPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:LevelSelectPanel,Root/TopUI/FreeModeButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对模式主界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:HomePanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:LevelSelectPanel,Root/TopUI/ReturnButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:PartyPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对介绍语音1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对介绍语音2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_party_01,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_party_02,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对介绍语音3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_party_03,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对装饰点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:PartyPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对答题选择界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:PartyItemIntroPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:PartyItemIntroPanel,Root/AnswerButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_party_04,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对完成引导1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对完成引导2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_party_05,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对完成引导3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:PartyPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对介绍语音-控制点击事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventPauseCommand:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对完成引导-控制点击事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:PartyPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventPauseCommand:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:PartyPanel,;MonoFuncCall:#0,PTGame.PaiLogic.PartyPanel,GetFirstCellDecorateButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对完成引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:HomePanel,Root/TopUI/MovingAreaRoot/PartyButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:HomePanel,,Root/TopUI/MovingAreaRoot/PartyButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:GamePanel,LevelIntroduceRoot/Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始答题引导:关闭读题音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始答题引导:恢复读题音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:GamePanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonoFuncCall:#0,PTGame.PaiLogic.GamePanel,PlayIntroduceAudio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonoFuncCall:#0,PTGame.PaiLogic.GamePanel,StopIntroduceAudio;PlayAudioCommand:guidevoice_05,true;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:GamePanel,;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:GamePanel,;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_01,false;HighlightUICommand:#0,false;ButtonHackCommand:#0;GuideHandCommand:#0,false,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_04,false;ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_06,false;ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighlightUICommand:#0,true;ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighlightUICommand:#0,true;ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighlightUICommand:#0,true;ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonHackCommand:#0;GuideHandCommand:#0,true,178|-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_02,false;HighlightUICommand:#1,true;ButtonHackCommand:#1;GuideHandCommand:#1,true,0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小任务引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:SmallMissionPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:SmallMissionPanel,Root/Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_08,false;HighlightUICommand:#0,true;ButtonHackCommand:#0;GuideHandCommand:#0,true,0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayAudioCommand:guidevoice_09,false;HighlightUICommand:#0,true;ButtonHackCommand:#0;GuideHandCommand:#0,true,0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighlightUICommand:#1,true;ButtonHackCommand:#1;GuideHandCommand:#1,true,62|-64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonHackCommand:#0;GuideHandCommand:#0,true,0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0;GameplayModeTrigger:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeVisibleTrigger:#0;UINodeVisibleTrigger:#1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:MsgBoxPanel,Root/CenterButton;UINodeFinder:ScanPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighlightUICommand:#2,true;ButtonHackCommand:#1;GuideHandCommand:#1,true,62|-64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINodeFinder:PartyPanel,;MonoFuncCall:#0,PTGame.PaiLogic.PartyPanel,GetFirstCellEditButton;MonoFuncCall:#0,PTGame.PaiLogic.PartyPanel,GetFirstCellEditCell</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -840,53 +544,53 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1011,7 +715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1219,14 +923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="F5:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1248,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
@@ -1274,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -1324,7 +1028,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -1343,444 +1047,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>43</v>
-      </c>
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
   </sheetData>
   <sortState ref="A3:C15">
@@ -1793,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1825,16 +1093,16 @@
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1846,22 +1114,22 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.5">
-      <c r="B5" s="10"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1871,14 +1139,14 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="16.5">
-      <c r="B6" s="10"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1888,14 +1156,14 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:15" ht="16.5">
-      <c r="B7" s="10"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -1905,14 +1173,14 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:15" ht="16.5">
-      <c r="B8" s="10"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1922,14 +1190,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:15" ht="16.5">
-      <c r="B9" s="10"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1939,11 +1207,11 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="12" spans="2:15" s="7" customFormat="1" ht="16.5">
       <c r="B12" s="1" t="s">
@@ -1961,22 +1229,22 @@
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6">
@@ -1988,25 +1256,25 @@
       <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B14" s="10"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="6">
         <v>1</v>
       </c>
@@ -2016,19 +1284,19 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B15" s="10"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -2038,19 +1306,19 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="10"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -2060,19 +1328,19 @@
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B17" s="10"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -2082,25 +1350,19 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="F4:F9"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="B13:B17"/>
@@ -2111,6 +1373,12 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="F4:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2118,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
